--- a/Documentation/TestFall.xlsx
+++ b/Documentation/TestFall.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local\Peter\Testning\SecuremeTesting@fendraq\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3014D-79FE-4F49-B450-82F41387E3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F137921F-7692-4052-BE30-B17AC1BCA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="5" activeTab="7" xr2:uid="{A195DD68-4712-4E96-A3AE-C1124A7416DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Kravspecifikationer" sheetId="2" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
   <si>
     <t>Test-ID</t>
   </si>
@@ -46,34 +47,12 @@
     <t>Utfört (Datum)</t>
   </si>
   <si>
-    <t>Utfört av</t>
-  </si>
-  <si>
     <t>Resultat</t>
   </si>
   <si>
     <t>Kommentar</t>
   </si>
   <si>
-    <t>Skicka in ett ärende med fullständiga uppgifter</t>
-  </si>
-  <si>
-    <t>Ärendet registreras och bekräftelse visas</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Systemet fungerade som förväntat</t>
-  </si>
-  <si>
-    <t>Exempel
- TC-001</t>
-  </si>
-  <si>
     <t>Implementerad funktionalitet utifrån kravspecifikationerna</t>
   </si>
   <si>
@@ -282,13 +261,268 @@
   </si>
   <si>
     <t>Testnivå</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>Unit - Backend</t>
+  </si>
+  <si>
+    <t>Säkerställer att konstruktorn i modellklassen Message sätter värden korrekt</t>
+  </si>
+  <si>
+    <t>Konstruktorn returnerar rätt värden och datatyper</t>
+  </si>
+  <si>
+    <t>Verifiera att konstruktorn i modellklassen User sätter värden korrekt</t>
+  </si>
+  <si>
+    <t>Verifiera att konstruktorn i modellklassen Case sätter värden korrekt</t>
+  </si>
+  <si>
+    <t>API - Endpoint</t>
+  </si>
+  <si>
+    <t>Säkerställa att logik för fel i API-endpoint POST /cases hanteras</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /cases hämtar ärendedata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint POST /cases skickar ärendedata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Mejlhantering - Tillsammans med token. Ej Get från DB.</t>
+  </si>
+  <si>
+    <t>Fil/Class</t>
+  </si>
+  <si>
+    <t>User.cs</t>
+  </si>
+  <si>
+    <t>Case.cs</t>
+  </si>
+  <si>
+    <t>Message.cs</t>
+  </si>
+  <si>
+    <t>CaseQueries.cs</t>
+  </si>
+  <si>
+    <t>ChatQueries.cs</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /chat/case/{chatToken} hämtar ärende- och meddelandedata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint POST /chat/new-message skickar in nytt chattmeddelande och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint PATCH /chat/close-case/{id} uppdaterar ett ärendes status till "closed" och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /chat/backoffice/{id} hämtar meddelandedata baserad på handläggare och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>LoginQueries.cs</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /login hämtar sessiondata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint POST /login sätter användardata när användare existerar och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Eventuella problem vid testning</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint DELETE /login tar bort inloggad användare från sessiondata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Check existing users</t>
+  </si>
+  <si>
+    <t>UserQueries.cs</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /users hämtar all användardata och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint GET /user-cases/{id} hämtar ärendedata per användare och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Ligger i fel map</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint POST /new-user skickar in data om ny användare till databasen och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint DELETE /users/{id} tar bort en användare från databasen och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Onödig API för ska inte kunna ta bort användare pga koppling till ärende - Funkar ens i frontend?</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint PATCH /users/{id} uppdaterar en användare i databasen och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Kopplad till frontend?</t>
+  </si>
+  <si>
+    <t>Bevisa att API-endpoint PUT /register uppdaterar en befintlig användares lösenord databasen och returnerar lyckad HTTP statuskod</t>
+  </si>
+  <si>
+    <t>Unit - Frontend</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Verifiera att kundformuläret kan fyllas i och felaktig input hanteras</t>
+  </si>
+  <si>
+    <t>Verifiera att kunden kan öppna en chatt med ett unikt chattoken</t>
+  </si>
+  <si>
+    <t>Verifiera att kunden kan skriva ett meddelande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifiera att kundtjänstmedarbetare kan skriva ett meddelande </t>
+  </si>
+  <si>
+    <t>Verifiera att chatten uppdateras för kunden och kundtjänstmedarbetaren</t>
+  </si>
+  <si>
+    <t>Två chattar - Refresh</t>
+  </si>
+  <si>
+    <t>Verifiera att ett ärende kan avslutas av en kundtjänstmedarbetare</t>
+  </si>
+  <si>
+    <t>Verifiera att en ny användare kan skapas</t>
+  </si>
+  <si>
+    <t>Verifiera att menyn byter vy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +562,12 @@
       <color rgb="FFDADADA"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -730,6 +970,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -738,42 +979,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -789,6 +1030,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -799,7 +1041,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -812,10 +1054,10 @@
     </row>
     <row r="2" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -825,10 +1067,10 @@
     </row>
     <row r="3" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -838,10 +1080,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -849,12 +1091,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -864,10 +1106,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -877,10 +1119,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -890,10 +1132,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -903,10 +1145,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1197,6 +1439,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1207,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1220,10 +1463,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -1233,10 +1476,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1246,10 +1489,10 @@
     </row>
     <row r="4" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1259,10 +1502,10 @@
     </row>
     <row r="5" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1272,10 +1515,10 @@
     </row>
     <row r="6" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1285,10 +1528,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1298,10 +1541,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1311,10 +1554,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1601,10 +1844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC0F83-9806-4801-90A6-2FE0AA568BAD}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1614,7 +1858,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1625,7 +1869,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1636,7 +1880,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1647,7 +1891,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1658,7 +1902,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1669,7 +1913,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1680,7 +1924,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1691,7 +1935,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1702,7 +1946,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1713,7 +1957,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1724,7 +1968,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1735,7 +1979,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1746,7 +1990,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1757,7 +2001,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1768,7 +2012,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1779,7 +2023,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1790,7 +2034,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1801,7 +2045,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1812,7 +2056,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2014,6 +2258,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2031,7 +2276,7 @@
     </row>
     <row r="2" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2042,7 +2287,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2388,6 +2633,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2405,7 +2651,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2416,7 +2662,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2427,7 +2673,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2760,10 +3006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD99A8-A7E2-4F91-A000-EBF798E7DFE7}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2780,9 +3027,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2791,9 +3038,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2802,9 +3049,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3135,103 +3382,142 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45748</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3239,9 +3525,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3249,9 +3538,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3259,9 +3551,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3269,9 +3564,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3279,9 +3577,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3289,9 +3590,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3299,278 +3603,512 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/TestFall.xlsx
+++ b/Documentation/TestFall.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local\Peter\Testning\SecuremeTesting@fendraq\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F137921F-7692-4052-BE30-B17AC1BCA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C21DC-8537-4946-9DD0-1349AA9C4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="5" activeTab="7" xr2:uid="{A195DD68-4712-4E96-A3AE-C1124A7416DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kravspecifikationer" sheetId="2" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
   <si>
     <t>Test-ID</t>
   </si>
@@ -236,9 +235,6 @@
     <t>-          API:er returnerar rätt statuskoder</t>
   </si>
   <si>
-    <t>Testningen omfattar ärendeformulär, mejl -, och ärendehantering, nya användare samt chattfunktionalitet.</t>
-  </si>
-  <si>
     <t> Kan jag testa?</t>
   </si>
   <si>
@@ -380,18 +376,6 @@
     <t>Unit - Backend</t>
   </si>
   <si>
-    <t>Säkerställer att konstruktorn i modellklassen Message sätter värden korrekt</t>
-  </si>
-  <si>
-    <t>Konstruktorn returnerar rätt värden och datatyper</t>
-  </si>
-  <si>
-    <t>Verifiera att konstruktorn i modellklassen User sätter värden korrekt</t>
-  </si>
-  <si>
-    <t>Verifiera att konstruktorn i modellklassen Case sätter värden korrekt</t>
-  </si>
-  <si>
     <t>API - Endpoint</t>
   </si>
   <si>
@@ -516,6 +500,39 @@
   </si>
   <si>
     <t>Verifiera att menyn byter vy</t>
+  </si>
+  <si>
+    <t>Verifiera att konstruktorn i modellklassen User sätter alla fält korrekt</t>
+  </si>
+  <si>
+    <t>Verifiera att konstruktorn i modellklassen Case sätter alla fält korrekt</t>
+  </si>
+  <si>
+    <t>Säkerställer att konstruktorn i modellklassen Message sätter alla fält korrekt</t>
+  </si>
+  <si>
+    <t>Konstruktorn returnerar objekt med korrekta värden</t>
+  </si>
+  <si>
+    <t>EX: Testar med både null och giltig input</t>
+  </si>
+  <si>
+    <t>HTTP 200 + JSON-array med rätt struktur</t>
+  </si>
+  <si>
+    <t>Mockdata</t>
+  </si>
+  <si>
+    <t>Fälten validerar korrekt input och visar felmeddelanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Använde: </t>
+  </si>
+  <si>
+    <t>-          om API för login i backend är uppbyggd för att kunna hantera vidare påbyggnad för login i frontend</t>
+  </si>
+  <si>
+    <t>Testningen omfattar ärendeformulär, mejl -, och ärendehantering, nya användare samt chattfunktionalitet. (Login - API i backend)</t>
   </si>
 </sst>
 </file>
@@ -590,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -650,11 +667,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -675,13 +707,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,7 +1005,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1026,11 +1060,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5464F935-DEAA-4EF7-8B39-9358828D74A1}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1439,7 +1472,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1842,13 +1874,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC0F83-9806-4801-90A6-2FE0AA568BAD}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2033,7 +2064,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="3"/>
@@ -2044,8 +2075,8 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
+      <c r="A18" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2055,8 +2086,8 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>66</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2066,7 +2097,9 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2244,6 +2277,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2254,11 +2296,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC31A750-71E8-4741-BD79-BC2E7283B985}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2276,7 +2317,7 @@
     </row>
     <row r="2" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2287,7 +2328,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2631,9 +2672,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2651,7 +2691,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2662,7 +2702,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2673,7 +2713,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3010,7 +3050,6 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3029,7 +3068,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3040,7 +3079,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3051,7 +3090,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3384,13 +3423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3408,16 +3443,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -3434,41 +3469,43 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3476,20 +3513,20 @@
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3497,16 +3534,16 @@
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3516,7 +3553,7 @@
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3529,7 +3566,7 @@
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3542,7 +3579,7 @@
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3555,7 +3592,7 @@
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3568,7 +3605,7 @@
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3581,7 +3618,7 @@
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3594,7 +3631,7 @@
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3607,38 +3644,42 @@
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3647,16 +3688,16 @@
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3666,16 +3707,16 @@
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3685,16 +3726,16 @@
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3704,16 +3745,16 @@
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3723,19 +3764,19 @@
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3744,19 +3785,19 @@
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3765,19 +3806,19 @@
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3786,16 +3827,16 @@
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3805,19 +3846,19 @@
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3826,16 +3867,16 @@
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3845,19 +3886,19 @@
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3866,19 +3907,19 @@
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3887,16 +3928,16 @@
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3906,31 +3947,35 @@
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3940,17 +3985,17 @@
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3959,17 +4004,17 @@
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3978,17 +4023,17 @@
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3997,14 +4042,14 @@
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4014,14 +4059,14 @@
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4031,14 +4076,14 @@
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4048,10 +4093,10 @@
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4063,10 +4108,10 @@
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4078,10 +4123,10 @@
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4093,10 +4138,10 @@
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
